--- a/config_7.13/act_ty_hlqjd_config.xlsx
+++ b/config_7.13/act_ty_hlqjd_config.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>line|行号</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>1,2,3</t>
-  </si>
-  <si>
-    <t>cpl_cjj</t>
   </si>
   <si>
     <t>condi_key|权限</t>
@@ -162,9 +159,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -182,83 +179,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,26 +240,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,6 +255,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -319,8 +285,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,13 +338,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,25 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,19 +458,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,19 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,85 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,6 +523,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,17 +574,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,48 +623,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -634,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +643,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,13 +1108,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
@@ -1150,29 +1147,12 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>1623715200</v>
+        <v>1626134400</v>
       </c>
       <c r="D2" s="2">
-        <v>1624291199</v>
+        <v>1626710399</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1623715200</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1624291199</v>
-      </c>
-      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1187,8 +1167,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1205,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1225,19 +1205,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1245,19 +1225,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1265,19 +1245,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1272,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1306,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1320,7 +1300,7 @@
         <v>10578</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1331,7 +1311,7 @@
         <v>10579</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1342,7 +1322,7 @@
         <v>10580</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1353,7 +1333,7 @@
         <v>10581</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1364,7 +1344,7 @@
         <v>10582</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1375,7 +1355,7 @@
         <v>10583</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1386,7 +1366,7 @@
         <v>10584</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1397,7 +1377,7 @@
         <v>10585</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1408,7 +1388,7 @@
         <v>10586</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1403,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1437,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1454,10 +1434,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1468,10 +1448,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1482,10 +1462,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1496,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1510,10 +1490,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1524,10 +1504,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1538,10 +1518,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1552,10 +1532,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1566,10 +1546,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/config_7.13/act_ty_hlqjd_config.xlsx
+++ b/config_7.13/act_ty_hlqjd_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config_info|时间" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>line|行号</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>1,2,3</t>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
   </si>
   <si>
     <t>condi_key|权限</t>
@@ -160,9 +163,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -179,46 +182,92 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,38 +289,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,17 +305,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,21 +321,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,181 +341,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,6 +526,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,9 +555,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,30 +595,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -598,28 +609,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,133 +646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,13 +1111,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
@@ -1153,6 +1156,23 @@
         <v>1626710399</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1626134400</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1626710399</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1185,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1205,19 +1225,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1225,19 +1245,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1245,19 +1265,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1286,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1300,7 +1320,7 @@
         <v>10578</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1311,7 +1331,7 @@
         <v>10579</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1322,7 +1342,7 @@
         <v>10580</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1333,7 +1353,7 @@
         <v>10581</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1344,7 +1364,7 @@
         <v>10582</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1355,7 +1375,7 @@
         <v>10583</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1366,7 +1386,7 @@
         <v>10584</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1377,7 +1397,7 @@
         <v>10585</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1388,7 +1408,7 @@
         <v>10586</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +1422,7 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1417,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1434,10 +1454,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1448,10 +1468,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1462,10 +1482,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1476,10 +1496,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1490,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1504,10 +1524,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1518,10 +1538,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1532,10 +1552,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1546,10 +1566,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
